--- a/Database/Csaki/Decese.xlsx
+++ b/Database/Csaki/Decese.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171F9B4C-0011-406A-A519-1C3FEFA724D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43514F69-60F6-4FBE-B96D-020B13DE3B62}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7010" yWindow="3710" windowWidth="26690" windowHeight="13640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,11 +395,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="4" width="12.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">

--- a/Database/Csaki/Decese.xlsx
+++ b/Database/Csaki/Decese.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Csaki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43514F69-60F6-4FBE-B96D-020B13DE3B62}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A621C982-D3B4-4B9D-B9FB-5F3D1D7B9BF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15780" yWindow="420" windowWidth="4710" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,6 +90,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -103,9 +109,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -113,6 +118,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,2214 +400,2382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D157"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="4" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>43887</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>43888</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>43889</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>43890</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>43891</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>43892</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>43893</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>43894</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>43895</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>43896</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>43897</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>43898</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>43899</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>13</v>
       </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>43900</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>43901</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>43902</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>16</v>
       </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>43903</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>17</v>
       </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>43904</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>18</v>
       </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>43905</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>19</v>
       </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>43906</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>20</v>
       </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>43907</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>21</v>
       </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>43908</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>22</v>
       </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>43909</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>23</v>
       </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>43910</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>24</v>
       </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>43911</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>25</v>
       </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>43912</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>26</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>9</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>43913</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>27</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>8</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>43914</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>28</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>2</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>43915</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>29</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>17</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>43916</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>30</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>16</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="5">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>43917</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>31</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>7</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>43918</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>32</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>12</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="5">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>43919</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>33</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>13</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="5">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>43920</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>34</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>18</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="5">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>43921</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>35</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>22</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="5">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>43922</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>36</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>14</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="5">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>43923</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>37</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>17</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="5">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>43924</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>38</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>17</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="5">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>43925</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>39</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>9</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="5">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>43926</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>40</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>21</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>202</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="5">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
         <v>43927</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>41</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>26</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="5">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
         <v>43928</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>42</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>23</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <v>251</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="5">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
         <v>43929</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>43</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>16</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>267</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="5">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
         <v>43930</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>44</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>28</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <v>295</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="5">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
         <v>43931</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>45</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>32</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3">
         <v>327</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="5">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
         <v>43932</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>46</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>14</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="3">
         <v>341</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="5">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
         <v>43933</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>47</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>14</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="3">
         <v>355</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="5">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
         <v>43934</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>48</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="2">
         <v>19</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="3">
         <v>374</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="5">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
         <v>43935</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>49</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="2">
         <v>23</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <v>397</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="5">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
         <v>43936</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>50</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <v>22</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="3">
         <v>419</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="5">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
         <v>43937</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>51</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="2">
         <v>15</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="3">
         <v>434</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="5">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
         <v>43938</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>52</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <v>22</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="3">
         <v>456</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="5">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
         <v>43939</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>53</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <v>24</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="3">
         <v>480</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="5">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
         <v>43940</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>54</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>20</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="5">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
         <v>43941</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>55</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="2">
         <v>32</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="3">
         <v>532</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="5">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
         <v>43942</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>56</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="2">
         <v>20</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="3">
         <v>552</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="5">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
         <v>43943</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>57</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="2">
         <v>20</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="3">
         <v>572</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="5">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
         <v>43944</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>58</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="2">
         <v>27</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="3">
         <v>599</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="5">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
         <v>43945</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>59</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="2">
         <v>23</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="3">
         <v>622</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="5">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
         <v>43946</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>60</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="2">
         <v>30</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="3">
         <v>652</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="5">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
         <v>43947</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <v>61</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="2">
         <v>18</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="3">
         <v>670</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="5">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
         <v>43948</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <v>62</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="2">
         <v>22</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="3">
         <v>692</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="5">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
         <v>43949</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <v>63</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="2">
         <v>24</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="3">
         <v>716</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="5">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
         <v>43950</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="1">
         <v>64</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="2">
         <v>21</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="3">
         <v>737</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="5">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
         <v>43951</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>65</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="2">
         <v>23</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="3">
         <v>760</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="5">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
         <v>43952</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <v>66</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="2">
         <v>26</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="3">
         <v>786</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="5">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
         <v>43953</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="1">
         <v>67</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="2">
         <v>26</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="3">
         <v>812</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="5">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
         <v>43954</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="1">
         <v>68</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="2">
         <v>29</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="3">
         <v>841</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="5">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
         <v>43955</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="1">
         <v>69</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="2">
         <v>15</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="3">
         <v>856</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="5">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
         <v>43956</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <v>70</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="2">
         <v>25</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="3">
         <v>881</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="5">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
         <v>43957</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>71</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="2">
         <v>15</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="3">
         <v>896</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="5">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
         <v>43958</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="1">
         <v>72</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="2">
         <v>24</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="3">
         <v>920</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="5">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
         <v>43959</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="1">
         <v>73</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="2">
         <v>12</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="3">
         <v>932</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="5">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
         <v>43960</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <v>74</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="2">
         <v>32</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="3">
         <v>964</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="5">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
         <v>43961</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="1">
         <v>75</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="2">
         <v>22</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="3">
         <v>986</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="5">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
         <v>43962</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="1">
         <v>76</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="2">
         <v>19</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="3">
         <v>1005</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="5">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
         <v>43963</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="1">
         <v>77</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="2">
         <v>25</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="3">
         <v>1030</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="5">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
         <v>43964</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="1">
         <v>78</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="2">
         <v>21</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="3">
         <v>1051</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="5">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
         <v>43965</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="1">
         <v>79</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="2">
         <v>17</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="3">
         <v>1068</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="5">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
         <v>43966</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="1">
         <v>80</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="2">
         <v>22</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="3">
         <v>1090</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="5">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
         <v>43967</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="1">
         <v>81</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="2">
         <v>20</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="3">
         <v>1110</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="5">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
         <v>43968</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="1">
         <v>82</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="2">
         <v>15</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="3">
         <v>1125</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="5">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
         <v>43969</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="1">
         <v>83</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="2">
         <v>12</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="3">
         <v>1137</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="5">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
         <v>43970</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="1">
         <v>84</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="2">
         <v>11</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="3">
         <v>1148</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="5">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
         <v>43971</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="1">
         <v>85</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="2">
         <v>9</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="3">
         <v>1157</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="5">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
         <v>43972</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="1">
         <v>86</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="2">
         <v>9</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="3">
         <v>1166</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="5">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
         <v>43973</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="1">
         <v>87</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="2">
         <v>11</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="3">
         <v>1177</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="5">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
         <v>43974</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="1">
         <v>88</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="2">
         <v>15</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="3">
         <v>1192</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="5">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
         <v>43975</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="1">
         <v>89</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="2">
         <v>13</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="3">
         <v>1205</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="5">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
         <v>43976</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="1">
         <v>90</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="2">
         <v>14</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="3">
         <v>1219</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="5">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
         <v>43977</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="1">
         <v>91</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="2">
         <v>10</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="3">
         <v>1229</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="5">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
         <v>43978</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="1">
         <v>92</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="2">
         <v>9</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="3">
         <v>1238</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="5">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
         <v>43979</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="1">
         <v>93</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="2">
         <v>9</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="3">
         <v>1247</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="5">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
         <v>43980</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="1">
         <v>94</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="2">
         <v>10</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95" s="3">
         <v>1257</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="5">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
         <v>43981</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="1">
         <v>95</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="2">
         <v>13</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="3">
         <v>1270</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="5">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
         <v>43982</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="1">
         <v>96</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="2">
         <v>11</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97" s="3">
         <v>1281</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="5">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
         <v>43983</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="1">
         <v>97</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="2">
         <v>8</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="3">
         <v>1289</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="5">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
         <v>43984</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="1">
         <v>98</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="2">
         <v>7</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D99" s="3">
         <v>1296</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="5">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
         <v>43985</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="1">
         <v>99</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="2">
         <v>7</v>
       </c>
-      <c r="D100" s="4">
+      <c r="D100" s="3">
         <v>1303</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="5">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
         <v>43986</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="1">
         <v>100</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="2">
         <v>13</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D101" s="3">
         <v>1316</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="5">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
         <v>43987</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="1">
         <v>101</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="2">
         <v>3</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102" s="3">
         <v>1319</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="5">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
         <v>43988</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="1">
         <v>102</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="2">
         <v>10</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="3">
         <v>1329</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="5">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
         <v>43989</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="1">
         <v>103</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="2">
         <v>13</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="3">
         <v>1342</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="5">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
         <v>43990</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="1">
         <v>104</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="2">
         <v>8</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D105" s="3">
         <v>1350</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="5">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
         <v>43991</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="1">
         <v>105</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="2">
         <v>11</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D106" s="3">
         <v>1361</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="5">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
         <v>43992</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="1">
         <v>106</v>
       </c>
-      <c r="C107" s="3">
-        <v>0</v>
-      </c>
-      <c r="D107" s="4">
+      <c r="C107" s="2">
+        <v>0</v>
+      </c>
+      <c r="D107" s="3">
         <v>1361</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="5">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
         <v>43993</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="1">
         <v>107</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="2">
         <v>8</v>
       </c>
-      <c r="D108" s="4">
+      <c r="D108" s="3">
         <v>1369</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="5">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
         <v>43994</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="1">
         <v>108</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="2">
         <v>11</v>
       </c>
-      <c r="D109" s="4">
+      <c r="D109" s="3">
         <v>1380</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="5">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
         <v>43995</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="1">
         <v>109</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="2">
         <v>14</v>
       </c>
-      <c r="D110" s="4">
+      <c r="D110" s="3">
         <v>1394</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" s="5">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
         <v>43996</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="1">
         <v>110</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="2">
         <v>16</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D111" s="3">
         <v>1410</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="5">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
         <v>43997</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="1">
         <v>111</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="2">
         <v>17</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D112" s="3">
         <v>1410</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="5">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
         <v>43998</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="1">
         <v>112</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="2">
         <v>11</v>
       </c>
-      <c r="D113" s="4">
+      <c r="D113" s="3">
         <v>1437</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="5">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
         <v>43999</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="1">
         <v>113</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="2">
         <v>15</v>
       </c>
-      <c r="D114" s="4">
+      <c r="D114" s="3">
         <v>1451</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="5">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
         <v>44000</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="1">
         <v>114</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="2">
         <v>22</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D115" s="3">
         <v>1473</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="5">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
         <v>44001</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="1">
         <v>115</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="2">
         <v>11</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D116" s="3">
         <v>1484</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" s="5">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
         <v>44002</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="1">
         <v>116</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="2">
         <v>16</v>
       </c>
-      <c r="D117" s="4">
+      <c r="D117" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="5">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
         <v>44003</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="1">
         <v>117</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="2">
         <v>12</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D118" s="3">
         <v>1512</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="5">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
         <v>44004</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="1">
         <v>118</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="2">
         <v>11</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D119" s="3">
         <v>1523</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="5">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
         <v>44005</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="1">
         <v>119</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="2">
         <v>16</v>
       </c>
-      <c r="D120" s="4">
+      <c r="D120" s="3">
         <v>1539</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="5">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
         <v>44006</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="1">
         <v>120</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="2">
         <v>16</v>
       </c>
-      <c r="D121" s="4">
+      <c r="D121" s="3">
         <v>1555</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="5">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
         <v>44007</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="1">
         <v>121</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="2">
         <v>10</v>
       </c>
-      <c r="D122" s="4">
+      <c r="D122" s="3">
         <v>1565</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="5">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
         <v>44008</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="1">
         <v>122</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="2">
         <v>14</v>
       </c>
-      <c r="D123" s="4">
+      <c r="D123" s="3">
         <v>1579</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="5">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
         <v>44009</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="1">
         <v>123</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="2">
         <v>10</v>
       </c>
-      <c r="D124" s="4">
+      <c r="D124" s="3">
         <v>1589</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="5">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
         <v>44010</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="1">
         <v>124</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125" s="2">
         <v>23</v>
       </c>
-      <c r="D125" s="4">
+      <c r="D125" s="3">
         <v>1612</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="5">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
         <v>44011</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="1">
         <v>125</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="2">
         <v>22</v>
       </c>
-      <c r="D126" s="4">
+      <c r="D126" s="3">
         <v>1634</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="5">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
         <v>44012</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="1">
         <v>126</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127" s="2">
         <v>17</v>
       </c>
-      <c r="D127" s="4">
+      <c r="D127" s="3">
         <v>1651</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="5">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
         <v>44013</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="1">
         <v>127</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="2">
         <v>16</v>
       </c>
-      <c r="D128" s="4">
+      <c r="D128" s="3">
         <v>1667</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" s="5">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
         <v>44014</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="1">
         <v>128</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="2">
         <v>20</v>
       </c>
-      <c r="D129" s="4">
+      <c r="D129" s="3">
         <v>1687</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" s="5">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
         <v>44015</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="1">
         <v>129</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="2">
         <v>21</v>
       </c>
-      <c r="D130" s="4">
+      <c r="D130" s="3">
         <v>1708</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" s="5">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
         <v>44016</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="1">
         <v>130</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131" s="2">
         <v>23</v>
       </c>
-      <c r="D131" s="4">
+      <c r="D131" s="3">
         <v>1731</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" s="5">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
         <v>44017</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="1">
         <v>131</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132" s="2">
         <v>19</v>
       </c>
-      <c r="D132" s="4">
+      <c r="D132" s="3">
         <v>1750</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" s="5">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
         <v>44018</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="1">
         <v>132</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133" s="2">
         <v>17</v>
       </c>
-      <c r="D133" s="4">
+      <c r="D133" s="3">
         <v>1768</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" s="5">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
         <v>44019</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="1">
         <v>133</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134" s="2">
         <v>31</v>
       </c>
-      <c r="D134" s="4">
+      <c r="D134" s="3">
         <v>1799</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135" s="5">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
         <v>44020</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="1">
         <v>134</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="2">
         <v>18</v>
       </c>
-      <c r="D135" s="4">
+      <c r="D135" s="3">
         <v>1817</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" s="5">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
         <v>44021</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="1">
         <v>135</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="2">
         <v>17</v>
       </c>
-      <c r="D136" s="4">
+      <c r="D136" s="3">
         <v>1834</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" s="5">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
         <v>44022</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="1">
         <v>136</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="2">
         <v>13</v>
       </c>
-      <c r="D137" s="4">
+      <c r="D137" s="3">
         <v>1847</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" s="5">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
         <v>44023</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="1">
         <v>137</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="2">
         <v>24</v>
       </c>
-      <c r="D138" s="4">
+      <c r="D138" s="3">
         <v>1871</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" s="5">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
         <v>44024</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="1">
         <v>138</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="2">
         <v>13</v>
       </c>
-      <c r="D139" s="4">
+      <c r="D139" s="3">
         <v>1884</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" s="5">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
         <v>44025</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="1">
         <v>139</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="2">
         <v>17</v>
       </c>
-      <c r="D140" s="4">
+      <c r="D140" s="3">
         <v>1901</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" s="5">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
         <v>44026</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="1">
         <v>140</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="2">
         <v>30</v>
       </c>
-      <c r="D141" s="4">
+      <c r="D141" s="3">
         <v>1931</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" s="5">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
         <v>44027</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="1">
         <v>141</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="2">
         <v>21</v>
       </c>
-      <c r="D142" s="4">
+      <c r="D142" s="3">
         <v>1952</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" s="5">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
         <v>44028</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="1">
         <v>142</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="2">
         <v>18</v>
       </c>
-      <c r="D143" s="4">
+      <c r="D143" s="3">
         <v>1971</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144" s="5">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
         <v>44029</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="1">
         <v>143</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144" s="2">
         <v>17</v>
       </c>
-      <c r="D144" s="4">
+      <c r="D144" s="3">
         <v>1988</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" s="5">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
         <v>44030</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="1">
         <v>144</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145" s="2">
         <v>21</v>
       </c>
-      <c r="D145" s="4">
+      <c r="D145" s="3">
         <v>2009</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" s="5">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
         <v>44031</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="1">
         <v>145</v>
       </c>
-      <c r="C146" s="3">
+      <c r="C146" s="2">
         <v>17</v>
       </c>
-      <c r="D146" s="4">
+      <c r="D146" s="3">
         <v>2026</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A147" s="5">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
         <v>44032</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="1">
         <v>146</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C147" s="2">
         <v>12</v>
       </c>
-      <c r="D147" s="4">
+      <c r="D147" s="3">
         <v>2038</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" s="5">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
         <v>44033</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="1">
         <v>147</v>
       </c>
-      <c r="C148" s="3">
+      <c r="C148" s="2">
         <v>36</v>
       </c>
-      <c r="D148" s="4">
+      <c r="D148" s="3">
         <v>2074</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" s="5">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
         <v>44034</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="1">
         <v>148</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149" s="2">
         <v>27</v>
       </c>
-      <c r="D149" s="4">
+      <c r="D149" s="3">
         <v>2101</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A150" s="5">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
         <v>44035</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="1">
         <v>149</v>
       </c>
-      <c r="C150" s="3">
+      <c r="C150" s="2">
         <v>25</v>
       </c>
-      <c r="D150" s="4">
+      <c r="D150" s="3">
         <v>2126</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A151" s="5">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
         <v>44036</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="1">
         <v>150</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C151" s="2">
         <v>24</v>
       </c>
-      <c r="D151" s="4">
+      <c r="D151" s="3">
         <v>2150</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" s="5">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
         <v>44037</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="1">
         <v>151</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C152" s="2">
         <v>15</v>
       </c>
-      <c r="D152" s="4">
+      <c r="D152" s="3">
         <v>2165</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" s="5">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
         <v>44038</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="1">
         <v>152</v>
       </c>
-      <c r="C153" s="3">
+      <c r="C153" s="2">
         <v>22</v>
       </c>
-      <c r="D153" s="4">
+      <c r="D153" s="3">
         <v>2187</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" s="5">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
         <v>44039</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="1">
         <v>153</v>
       </c>
-      <c r="C154" s="3">
+      <c r="C154" s="2">
         <v>19</v>
       </c>
-      <c r="D154" s="4">
+      <c r="D154" s="3">
         <v>2206</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" s="5">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
         <v>44040</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="1">
         <v>154</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C155" s="2">
         <v>33</v>
       </c>
-      <c r="D155" s="4">
+      <c r="D155" s="3">
         <v>2239</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" s="5">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
         <v>44041</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="1">
         <v>155</v>
       </c>
-      <c r="C156" s="3">
+      <c r="C156" s="2">
         <v>30</v>
       </c>
-      <c r="D156" s="4">
+      <c r="D156" s="3">
         <v>2269</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" s="6">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="5">
         <v>44042</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="1">
         <v>156</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157" s="2">
         <v>35</v>
       </c>
-      <c r="D157" s="4">
+      <c r="D157" s="3">
         <v>2304</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="5">
+        <v>44043</v>
+      </c>
+      <c r="B158" s="1">
+        <v>157</v>
+      </c>
+      <c r="C158" s="2">
+        <v>39</v>
+      </c>
+      <c r="D158" s="3">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="5">
+        <v>44044</v>
+      </c>
+      <c r="B159" s="1">
+        <v>158</v>
+      </c>
+      <c r="C159" s="2">
+        <v>36</v>
+      </c>
+      <c r="D159" s="3">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="5">
+        <v>44045</v>
+      </c>
+      <c r="B160" s="1">
+        <v>159</v>
+      </c>
+      <c r="C160" s="2">
+        <v>34</v>
+      </c>
+      <c r="D160" s="3">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="5">
+        <v>44046</v>
+      </c>
+      <c r="B161" s="1">
+        <v>160</v>
+      </c>
+      <c r="C161" s="2">
+        <v>19</v>
+      </c>
+      <c r="D161" s="3">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="5">
+        <v>44047</v>
+      </c>
+      <c r="B162" s="1">
+        <v>161</v>
+      </c>
+      <c r="C162" s="2">
+        <v>48</v>
+      </c>
+      <c r="D162" s="3">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="5">
+        <v>44048</v>
+      </c>
+      <c r="B163" s="1">
+        <v>162</v>
+      </c>
+      <c r="C163" s="2">
+        <v>41</v>
+      </c>
+      <c r="D163" s="3">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="5">
+        <v>44049</v>
+      </c>
+      <c r="B164" s="1">
+        <v>163</v>
+      </c>
+      <c r="C164" s="2">
+        <v>45</v>
+      </c>
+      <c r="D164" s="3">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="5">
+        <v>44050</v>
+      </c>
+      <c r="B165" s="1">
+        <v>164</v>
+      </c>
+      <c r="C165" s="2">
+        <v>50</v>
+      </c>
+      <c r="D165" s="3">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="5">
+        <v>44051</v>
+      </c>
+      <c r="B166" s="1">
+        <v>165</v>
+      </c>
+      <c r="C166" s="2">
+        <v>43</v>
+      </c>
+      <c r="D166" s="3">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="5">
+        <v>44052</v>
+      </c>
+      <c r="B167" s="1">
+        <v>166</v>
+      </c>
+      <c r="C167" s="2">
+        <v>41</v>
+      </c>
+      <c r="D167" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="5">
+        <v>44053</v>
+      </c>
+      <c r="B168" s="1">
+        <v>167</v>
+      </c>
+      <c r="C168" s="2">
+        <v>29</v>
+      </c>
+      <c r="D168" s="3">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="5">
+        <v>44054</v>
+      </c>
+      <c r="B169" s="1">
+        <v>168</v>
+      </c>
+      <c r="C169" s="2">
+        <v>35</v>
+      </c>
+      <c r="D169" s="3">
+        <v>2764</v>
       </c>
     </row>
   </sheetData>
@@ -2615,7 +2790,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database/Csaki/Decese.xlsx
+++ b/Database/Csaki/Decese.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A621C982-D3B4-4B9D-B9FB-5F3D1D7B9BF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256BFF60-C5D3-4E8A-A1A2-8C7C5EAAD597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15780" yWindow="420" windowWidth="4710" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15705" yWindow="-360" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -117,7 +117,6 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -400,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:D178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="D165" sqref="D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,16 +412,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2597,7 +2596,7 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="5">
+      <c r="A157" s="4">
         <v>44042</v>
       </c>
       <c r="B157" s="1">
@@ -2611,7 +2610,7 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="5">
+      <c r="A158" s="4">
         <v>44043</v>
       </c>
       <c r="B158" s="1">
@@ -2625,7 +2624,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="5">
+      <c r="A159" s="4">
         <v>44044</v>
       </c>
       <c r="B159" s="1">
@@ -2639,7 +2638,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="5">
+      <c r="A160" s="4">
         <v>44045</v>
       </c>
       <c r="B160" s="1">
@@ -2653,7 +2652,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="5">
+      <c r="A161" s="4">
         <v>44046</v>
       </c>
       <c r="B161" s="1">
@@ -2667,7 +2666,7 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="5">
+      <c r="A162" s="4">
         <v>44047</v>
       </c>
       <c r="B162" s="1">
@@ -2681,7 +2680,7 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="5">
+      <c r="A163" s="4">
         <v>44048</v>
       </c>
       <c r="B163" s="1">
@@ -2695,7 +2694,7 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="5">
+      <c r="A164" s="4">
         <v>44049</v>
       </c>
       <c r="B164" s="1">
@@ -2709,7 +2708,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="5">
+      <c r="A165" s="4">
         <v>44050</v>
       </c>
       <c r="B165" s="1">
@@ -2723,7 +2722,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="5">
+      <c r="A166" s="4">
         <v>44051</v>
       </c>
       <c r="B166" s="1">
@@ -2737,7 +2736,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="5">
+      <c r="A167" s="4">
         <v>44052</v>
       </c>
       <c r="B167" s="1">
@@ -2751,7 +2750,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="5">
+      <c r="A168" s="4">
         <v>44053</v>
       </c>
       <c r="B168" s="1">
@@ -2765,7 +2764,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="5">
+      <c r="A169" s="4">
         <v>44054</v>
       </c>
       <c r="B169" s="1">
@@ -2776,6 +2775,132 @@
       </c>
       <c r="D169" s="3">
         <v>2764</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
+        <v>44055</v>
+      </c>
+      <c r="B170" s="1">
+        <v>169</v>
+      </c>
+      <c r="C170" s="2">
+        <v>43</v>
+      </c>
+      <c r="D170" s="3">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <v>44056</v>
+      </c>
+      <c r="B171" s="1">
+        <v>170</v>
+      </c>
+      <c r="C171" s="2">
+        <v>53</v>
+      </c>
+      <c r="D171" s="3">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
+        <v>44057</v>
+      </c>
+      <c r="B172" s="1">
+        <v>171</v>
+      </c>
+      <c r="C172" s="2">
+        <v>44</v>
+      </c>
+      <c r="D172" s="3">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
+        <v>44058</v>
+      </c>
+      <c r="B173" s="1">
+        <v>172</v>
+      </c>
+      <c r="C173" s="2">
+        <v>50</v>
+      </c>
+      <c r="D173" s="3">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <v>44059</v>
+      </c>
+      <c r="B174" s="1">
+        <v>173</v>
+      </c>
+      <c r="C174" s="2">
+        <v>37</v>
+      </c>
+      <c r="D174" s="3">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <v>44060</v>
+      </c>
+      <c r="B175" s="1">
+        <v>174</v>
+      </c>
+      <c r="C175" s="2">
+        <v>18</v>
+      </c>
+      <c r="D175" s="3">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
+        <v>44061</v>
+      </c>
+      <c r="B176" s="1">
+        <v>175</v>
+      </c>
+      <c r="C176" s="2">
+        <v>45</v>
+      </c>
+      <c r="D176" s="3">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
+        <v>44062</v>
+      </c>
+      <c r="B177" s="1">
+        <v>176</v>
+      </c>
+      <c r="C177" s="2">
+        <v>32</v>
+      </c>
+      <c r="D177" s="3">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
+        <v>44063</v>
+      </c>
+      <c r="B178" s="1">
+        <v>177</v>
+      </c>
+      <c r="C178" s="2">
+        <v>48</v>
+      </c>
+      <c r="D178" s="3">
+        <v>3154</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Csaki/Decese.xlsx
+++ b/Database/Csaki/Decese.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256BFF60-C5D3-4E8A-A1A2-8C7C5EAAD597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E1DBA7-B3AD-4703-BBE5-36E7FAAEF72D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15705" yWindow="-360" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11535" yWindow="3045" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D178"/>
+  <dimension ref="A1:D182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="D165" sqref="D165"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2901,6 +2901,62 @@
       </c>
       <c r="D178" s="3">
         <v>3154</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="4">
+        <v>44064</v>
+      </c>
+      <c r="B179" s="1">
+        <v>178</v>
+      </c>
+      <c r="C179" s="2">
+        <v>42</v>
+      </c>
+      <c r="D179" s="3">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
+        <v>44065</v>
+      </c>
+      <c r="B180" s="1">
+        <v>179</v>
+      </c>
+      <c r="C180" s="2">
+        <v>37</v>
+      </c>
+      <c r="D180" s="3">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="4">
+        <v>44066</v>
+      </c>
+      <c r="B181" s="1">
+        <v>180</v>
+      </c>
+      <c r="C181" s="2">
+        <v>39</v>
+      </c>
+      <c r="D181" s="3">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="4">
+        <v>44067</v>
+      </c>
+      <c r="B182" s="1">
+        <v>181</v>
+      </c>
+      <c r="C182" s="2">
+        <v>37</v>
+      </c>
+      <c r="D182" s="3">
+        <v>3309</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Csaki/Decese.xlsx
+++ b/Database/Csaki/Decese.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E1DBA7-B3AD-4703-BBE5-36E7FAAEF72D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CC84BF-2999-4438-9891-0FFF4C14262E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11535" yWindow="3045" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11535" yWindow="795" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D182"/>
+  <dimension ref="A1:D186"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="C182" sqref="C182"/>
+      <selection activeCell="C186" sqref="C186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2957,6 +2957,62 @@
       </c>
       <c r="D182" s="3">
         <v>3309</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="4">
+        <v>44068</v>
+      </c>
+      <c r="B183" s="1">
+        <v>182</v>
+      </c>
+      <c r="C183" s="2">
+        <v>58</v>
+      </c>
+      <c r="D183" s="3">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="4">
+        <v>44069</v>
+      </c>
+      <c r="B184" s="1">
+        <v>183</v>
+      </c>
+      <c r="C184" s="2">
+        <v>54</v>
+      </c>
+      <c r="D184" s="3">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="4">
+        <v>44070</v>
+      </c>
+      <c r="B185" s="1">
+        <v>184</v>
+      </c>
+      <c r="C185" s="2">
+        <v>38</v>
+      </c>
+      <c r="D185" s="3">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
+        <v>44071</v>
+      </c>
+      <c r="B186" s="1">
+        <v>185</v>
+      </c>
+      <c r="C186" s="2">
+        <v>48</v>
+      </c>
+      <c r="D186" s="3">
+        <v>3507</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Csaki/Decese.xlsx
+++ b/Database/Csaki/Decese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CC84BF-2999-4438-9891-0FFF4C14262E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552759E5-D4F1-4143-93CC-C813944DFC58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11535" yWindow="795" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D186"/>
+  <dimension ref="A1:D189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="C186" sqref="C186"/>
+      <selection activeCell="C190" sqref="C190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3013,6 +3013,48 @@
       </c>
       <c r="D186" s="3">
         <v>3507</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="4">
+        <v>44072</v>
+      </c>
+      <c r="B187" s="1">
+        <v>186</v>
+      </c>
+      <c r="C187" s="2">
+        <v>32</v>
+      </c>
+      <c r="D187" s="3">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
+        <v>44073</v>
+      </c>
+      <c r="B188" s="1">
+        <v>187</v>
+      </c>
+      <c r="C188" s="2">
+        <v>39</v>
+      </c>
+      <c r="D188" s="3">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="4">
+        <v>44074</v>
+      </c>
+      <c r="B189" s="1">
+        <v>188</v>
+      </c>
+      <c r="C189" s="2">
+        <v>43</v>
+      </c>
+      <c r="D189" s="3">
+        <v>3621</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Csaki/Decese.xlsx
+++ b/Database/Csaki/Decese.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552759E5-D4F1-4143-93CC-C813944DFC58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16C69C0-AFB7-456C-9290-70128C1F1FB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11535" yWindow="795" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15855" yWindow="1215" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D189"/>
+  <dimension ref="A1:D197"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="C190" sqref="C190"/>
+      <selection activeCell="C198" sqref="C198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3055,6 +3055,118 @@
       </c>
       <c r="D189" s="3">
         <v>3621</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="4">
+        <v>44075</v>
+      </c>
+      <c r="B190" s="1">
+        <v>189</v>
+      </c>
+      <c r="C190" s="2">
+        <v>60</v>
+      </c>
+      <c r="D190" s="3">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="4">
+        <v>44076</v>
+      </c>
+      <c r="B191" s="1">
+        <v>190</v>
+      </c>
+      <c r="C191" s="2">
+        <v>40</v>
+      </c>
+      <c r="D191" s="3">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
+        <v>44077</v>
+      </c>
+      <c r="B192" s="1">
+        <v>191</v>
+      </c>
+      <c r="C192" s="2">
+        <v>44</v>
+      </c>
+      <c r="D192" s="3">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="4">
+        <v>44078</v>
+      </c>
+      <c r="B193" s="1">
+        <v>192</v>
+      </c>
+      <c r="C193" s="2">
+        <v>47</v>
+      </c>
+      <c r="D193" s="3">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="4">
+        <v>44079</v>
+      </c>
+      <c r="B194" s="1">
+        <v>193</v>
+      </c>
+      <c r="C194" s="2">
+        <v>38</v>
+      </c>
+      <c r="D194" s="3">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="4">
+        <v>44080</v>
+      </c>
+      <c r="B195" s="1">
+        <v>194</v>
+      </c>
+      <c r="C195" s="2">
+        <v>43</v>
+      </c>
+      <c r="D195" s="3">
+        <v>3893</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="4">
+        <v>44081</v>
+      </c>
+      <c r="B196" s="1">
+        <v>195</v>
+      </c>
+      <c r="C196" s="2">
+        <v>33</v>
+      </c>
+      <c r="D196" s="3">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="4">
+        <v>44082</v>
+      </c>
+      <c r="B197" s="1">
+        <v>196</v>
+      </c>
+      <c r="C197" s="2">
+        <v>41</v>
+      </c>
+      <c r="D197" s="3">
+        <v>3967</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Csaki/Decese.xlsx
+++ b/Database/Csaki/Decese.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16C69C0-AFB7-456C-9290-70128C1F1FB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EC8829-11CA-45E1-BC8F-88F0B525786D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15855" yWindow="1215" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11535" yWindow="1725" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D197"/>
+  <dimension ref="A1:D223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="C198" sqref="C198"/>
+    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C223" sqref="C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3167,6 +3167,370 @@
       </c>
       <c r="D197" s="3">
         <v>3967</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="4">
+        <v>44083</v>
+      </c>
+      <c r="B198" s="1">
+        <v>197</v>
+      </c>
+      <c r="C198" s="2">
+        <v>51</v>
+      </c>
+      <c r="D198" s="3">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="4">
+        <v>44084</v>
+      </c>
+      <c r="B199" s="1">
+        <v>198</v>
+      </c>
+      <c r="C199" s="2">
+        <v>47</v>
+      </c>
+      <c r="D199" s="3">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="4">
+        <v>44085</v>
+      </c>
+      <c r="B200" s="1">
+        <v>199</v>
+      </c>
+      <c r="C200" s="2">
+        <v>35</v>
+      </c>
+      <c r="D200" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="4">
+        <v>44086</v>
+      </c>
+      <c r="B201" s="1">
+        <v>200</v>
+      </c>
+      <c r="C201" s="2">
+        <v>27</v>
+      </c>
+      <c r="D201" s="3">
+        <v>4127</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="4">
+        <v>44087</v>
+      </c>
+      <c r="B202" s="1">
+        <v>201</v>
+      </c>
+      <c r="C202" s="2">
+        <v>33</v>
+      </c>
+      <c r="D202" s="3">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="4">
+        <v>44088</v>
+      </c>
+      <c r="B203" s="1">
+        <v>202</v>
+      </c>
+      <c r="C203" s="2">
+        <v>22</v>
+      </c>
+      <c r="D203" s="3">
+        <v>4185</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="4">
+        <v>44089</v>
+      </c>
+      <c r="B204" s="1">
+        <v>203</v>
+      </c>
+      <c r="C204" s="2">
+        <v>51</v>
+      </c>
+      <c r="D204" s="3">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="4">
+        <v>44090</v>
+      </c>
+      <c r="B205" s="1">
+        <v>204</v>
+      </c>
+      <c r="C205" s="2">
+        <v>49</v>
+      </c>
+      <c r="D205" s="3">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="4">
+        <v>44091</v>
+      </c>
+      <c r="B206" s="1">
+        <v>205</v>
+      </c>
+      <c r="C206" s="2">
+        <v>27</v>
+      </c>
+      <c r="D206" s="3">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="4">
+        <v>44092</v>
+      </c>
+      <c r="B207" s="1">
+        <v>206</v>
+      </c>
+      <c r="C207" s="2">
+        <v>48</v>
+      </c>
+      <c r="D207" s="3">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="4">
+        <v>44093</v>
+      </c>
+      <c r="B208" s="1">
+        <v>207</v>
+      </c>
+      <c r="C208" s="2">
+        <v>42</v>
+      </c>
+      <c r="D208" s="3">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="4">
+        <v>44094</v>
+      </c>
+      <c r="B209" s="1">
+        <v>208</v>
+      </c>
+      <c r="C209" s="2">
+        <v>33</v>
+      </c>
+      <c r="D209" s="3">
+        <v>4435</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="4">
+        <v>44095</v>
+      </c>
+      <c r="B210" s="1">
+        <v>209</v>
+      </c>
+      <c r="C210" s="2">
+        <v>23</v>
+      </c>
+      <c r="D210" s="3">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="4">
+        <v>44096</v>
+      </c>
+      <c r="B211" s="1">
+        <v>210</v>
+      </c>
+      <c r="C211" s="2">
+        <v>45</v>
+      </c>
+      <c r="D211" s="3">
+        <v>4503</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="4">
+        <v>44097</v>
+      </c>
+      <c r="B212" s="1">
+        <v>211</v>
+      </c>
+      <c r="C212" s="2">
+        <v>47</v>
+      </c>
+      <c r="D212" s="3">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="4">
+        <v>44098</v>
+      </c>
+      <c r="B213" s="1">
+        <v>212</v>
+      </c>
+      <c r="C213" s="2">
+        <v>41</v>
+      </c>
+      <c r="D213" s="3">
+        <v>4591</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="4">
+        <v>44099</v>
+      </c>
+      <c r="B214" s="1">
+        <v>213</v>
+      </c>
+      <c r="C214" s="2">
+        <v>42</v>
+      </c>
+      <c r="D214" s="3">
+        <v>4633</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="4">
+        <v>44100</v>
+      </c>
+      <c r="B215" s="1">
+        <v>214</v>
+      </c>
+      <c r="C215" s="2">
+        <v>54</v>
+      </c>
+      <c r="D215" s="3">
+        <v>4687</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="4">
+        <v>44101</v>
+      </c>
+      <c r="B216" s="1">
+        <v>215</v>
+      </c>
+      <c r="C216" s="2">
+        <v>31</v>
+      </c>
+      <c r="D216" s="3">
+        <v>4718</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="4">
+        <v>44102</v>
+      </c>
+      <c r="B217" s="1">
+        <v>216</v>
+      </c>
+      <c r="C217" s="2">
+        <v>30</v>
+      </c>
+      <c r="D217" s="3">
+        <v>4748</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="4">
+        <v>44103</v>
+      </c>
+      <c r="B218" s="1">
+        <v>217</v>
+      </c>
+      <c r="C218" s="2">
+        <v>44</v>
+      </c>
+      <c r="D218" s="3">
+        <v>4792</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="4">
+        <v>44104</v>
+      </c>
+      <c r="B219" s="1">
+        <v>218</v>
+      </c>
+      <c r="C219" s="2">
+        <v>33</v>
+      </c>
+      <c r="D219" s="3">
+        <v>4825</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="4">
+        <v>44105</v>
+      </c>
+      <c r="B220" s="1">
+        <v>219</v>
+      </c>
+      <c r="C220" s="2">
+        <v>37</v>
+      </c>
+      <c r="D220" s="3">
+        <v>4862</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="4">
+        <v>44106</v>
+      </c>
+      <c r="B221" s="1">
+        <v>220</v>
+      </c>
+      <c r="C221" s="2">
+        <v>53</v>
+      </c>
+      <c r="D221" s="3">
+        <v>4915</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="4">
+        <v>44107</v>
+      </c>
+      <c r="B222" s="1">
+        <v>221</v>
+      </c>
+      <c r="C222" s="2">
+        <v>32</v>
+      </c>
+      <c r="D222" s="3">
+        <v>4947</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="4">
+        <v>44108</v>
+      </c>
+      <c r="B223" s="1">
+        <v>222</v>
+      </c>
+      <c r="C223" s="2">
+        <v>56</v>
+      </c>
+      <c r="D223" s="3">
+        <v>5003</v>
       </c>
     </row>
   </sheetData>
